--- a/output/BayesTheo0.5Citptile0.9alpha0.05power0.8N1000/BayesTheo0.5Citptile0.9alpha0.05power0.8N1000N1000.xlsx
+++ b/output/BayesTheo0.5Citptile0.9alpha0.05power0.8N1000/BayesTheo0.5Citptile0.9alpha0.05power0.8N1000N1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewan\Documents\MATLAB\Modeling\Replication market\output\BayesTheo0.5Citptile0.9alpha0.05power0.8N1000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E611FB06-FBAE-41A5-BFCF-6E4CDA86F1B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88A724B-B5B4-44DD-9C05-936663449B34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="2250" windowWidth="21600" windowHeight="12735" xr2:uid="{126A6949-E302-47FC-8BB0-2215564664F8}"/>
+    <workbookView xWindow="1152" yWindow="6684" windowWidth="27060" windowHeight="10800" xr2:uid="{BBDE7720-56DC-4256-AFE2-A937F266C91E}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="4" r:id="rId1"/>
@@ -466,29 +466,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDBA787-1158-4351-848B-630CED3E1866}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D838E31-6DE2-42BE-B071-3095D7FF1DF8}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -543,46 +543,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.5747885825867898E-2</v>
+        <v>1.5516217671741417E-2</v>
       </c>
       <c r="D2">
-        <v>0.90560157041391331</v>
+        <v>0.90646283622270984</v>
       </c>
       <c r="E2">
-        <v>8.1910000000000007</v>
+        <v>8.1859999999999999</v>
       </c>
       <c r="F2">
-        <v>111.566</v>
+        <v>112.297</v>
       </c>
       <c r="G2">
-        <v>9.1630000000000003</v>
+        <v>9.8729999999999993</v>
       </c>
       <c r="H2">
-        <v>1.284</v>
+        <v>1.4179999999999999</v>
       </c>
       <c r="I2">
-        <v>1.407</v>
+        <v>1.399</v>
       </c>
       <c r="J2">
-        <v>1.3438967136150236E-2</v>
+        <v>1.1111111111111113E-2</v>
       </c>
       <c r="K2">
-        <v>0.90074291888808078</v>
+        <v>0.90080317070255267</v>
       </c>
       <c r="L2">
-        <v>11.566000000000001</v>
+        <v>12.297000000000001</v>
       </c>
       <c r="M2">
-        <v>111.566</v>
+        <v>112.297</v>
       </c>
       <c r="N2">
-        <v>1.3460000000000001</v>
+        <v>1.41</v>
       </c>
       <c r="O2">
-        <v>1.3959999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.4430000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -590,46 +590,46 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.5811970383153611E-2</v>
+        <v>1.5332545761848379E-2</v>
       </c>
       <c r="D3">
-        <v>0.89973051555402583</v>
+        <v>0.8954143193380647</v>
       </c>
       <c r="E3">
-        <v>8.1620000000000008</v>
+        <v>8.1910000000000007</v>
       </c>
       <c r="F3">
-        <v>111.366</v>
+        <v>111.446</v>
       </c>
       <c r="G3">
-        <v>8.9920000000000009</v>
+        <v>9.0960000000000001</v>
       </c>
       <c r="H3">
-        <v>0.91300000000000003</v>
+        <v>0.93</v>
       </c>
       <c r="I3">
-        <v>0.83299999999999996</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="J3">
-        <v>1.2480499219968799E-2</v>
+        <v>1.3636363636363636E-2</v>
       </c>
       <c r="K3">
-        <v>0.91206265262515285</v>
+        <v>0.91193833943833957</v>
       </c>
       <c r="L3">
-        <v>11.366</v>
+        <v>11.446</v>
       </c>
       <c r="M3">
-        <v>101.173</v>
+        <v>101.16200000000001</v>
       </c>
       <c r="N3">
-        <v>0.96099999999999997</v>
+        <v>0.94</v>
       </c>
       <c r="O3">
-        <v>0.95199999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -637,46 +637,46 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1.6331822473319137E-2</v>
+        <v>1.6184531743564746E-2</v>
       </c>
       <c r="D4">
-        <v>0.89383056425982954</v>
+        <v>0.90280733122740808</v>
       </c>
       <c r="E4">
-        <v>8.1829999999999998</v>
+        <v>8.1850000000000005</v>
       </c>
       <c r="F4">
-        <v>110.928</v>
+        <v>111.726</v>
       </c>
       <c r="G4">
-        <v>8.5359999999999996</v>
+        <v>9.2260000000000009</v>
       </c>
       <c r="H4">
-        <v>1.155</v>
+        <v>1.2869999999999999</v>
       </c>
       <c r="I4">
-        <v>1.252</v>
+        <v>1.2529999999999999</v>
       </c>
       <c r="J4">
-        <v>1.4660493827160493E-2</v>
+        <v>1.2135922330097087E-2</v>
       </c>
       <c r="K4">
-        <v>0.90965546218487459</v>
+        <v>0.904029982363316</v>
       </c>
       <c r="L4">
-        <v>10.928000000000001</v>
+        <v>11.726000000000001</v>
       </c>
       <c r="M4">
-        <v>101.56100000000001</v>
+        <v>101.7</v>
       </c>
       <c r="N4">
-        <v>1.2270000000000001</v>
+        <v>1.367</v>
       </c>
       <c r="O4">
-        <v>1.2170000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -684,46 +684,46 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>1.5611483671837923E-2</v>
+        <v>1.5315407893584994E-2</v>
       </c>
       <c r="D5">
-        <v>0.89733274682896014</v>
+        <v>0.89918329717292989</v>
       </c>
       <c r="E5">
         <v>8.19</v>
       </c>
       <c r="F5">
-        <v>111.124</v>
+        <v>111.715</v>
       </c>
       <c r="G5">
-        <v>8.8320000000000007</v>
+        <v>9.3819999999999997</v>
       </c>
       <c r="H5">
-        <v>2.137</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="I5">
-        <v>1.9950000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J5">
-        <v>1.3492063492063493E-2</v>
+        <v>9.2165898617511521E-3</v>
       </c>
       <c r="K5">
-        <v>0.90446270467729639</v>
+        <v>0.89428857035752773</v>
       </c>
       <c r="L5">
-        <v>11.124000000000001</v>
+        <v>11.715</v>
       </c>
       <c r="M5">
-        <v>102.63500000000001</v>
+        <v>102.749</v>
       </c>
       <c r="N5">
-        <v>2.1139999999999999</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="O5">
-        <v>2.105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -731,46 +731,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.4747169239882894E-2</v>
+        <v>1.4805253512851507E-2</v>
       </c>
       <c r="D6">
-        <v>0.90454304123824092</v>
+        <v>0.90925000880507389</v>
       </c>
       <c r="E6">
-        <v>8.1760000000000002</v>
+        <v>8.1739999999999995</v>
       </c>
       <c r="F6">
-        <v>111.282</v>
+        <v>110.64400000000001</v>
       </c>
       <c r="G6">
-        <v>8.9600000000000009</v>
+        <v>8.4179999999999993</v>
       </c>
       <c r="H6">
-        <v>1.3009999999999999</v>
+        <v>1.272</v>
       </c>
       <c r="I6">
-        <v>1.262</v>
+        <v>1.2390000000000001</v>
       </c>
       <c r="J6">
-        <v>1.3030303030303031E-2</v>
+        <v>1.5707011359185272E-2</v>
       </c>
       <c r="K6">
-        <v>0.89965295557978664</v>
+        <v>0.90194919502954329</v>
       </c>
       <c r="L6">
-        <v>11.282</v>
+        <v>10.644</v>
       </c>
       <c r="M6">
-        <v>111.282</v>
+        <v>110.64400000000001</v>
       </c>
       <c r="N6">
-        <v>1.3149999999999999</v>
+        <v>1.1339999999999999</v>
       </c>
       <c r="O6">
-        <v>1.458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -778,46 +778,46 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1.6126184914124618E-2</v>
+        <v>1.5574222547077842E-2</v>
       </c>
       <c r="D7">
-        <v>0.90435411858822257</v>
+        <v>0.8980135079647642</v>
       </c>
       <c r="E7">
-        <v>8.1950000000000003</v>
+        <v>8.1829999999999998</v>
       </c>
       <c r="F7">
-        <v>111.913</v>
+        <v>112.276</v>
       </c>
       <c r="G7">
-        <v>9.4580000000000002</v>
+        <v>9.8439999999999994</v>
       </c>
       <c r="H7">
-        <v>0.92700000000000005</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="I7">
-        <v>0.94199999999999995</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="J7">
-        <v>1.10062893081761E-2</v>
+        <v>1.468189233278956E-2</v>
       </c>
       <c r="K7">
-        <v>0.9045130481571162</v>
+        <v>0.91393747975380657</v>
       </c>
       <c r="L7">
-        <v>11.913</v>
+        <v>12.276</v>
       </c>
       <c r="M7">
-        <v>101.212</v>
+        <v>101.203</v>
       </c>
       <c r="N7">
-        <v>0.97899999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="O7">
-        <v>0.97199999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -825,46 +825,46 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>1.482919591992362E-2</v>
+        <v>1.5127834998073081E-2</v>
       </c>
       <c r="D8">
-        <v>0.90100843701234912</v>
+        <v>0.90105194413092049</v>
       </c>
       <c r="E8">
-        <v>8.1769999999999996</v>
+        <v>8.17</v>
       </c>
       <c r="F8">
-        <v>111.256</v>
+        <v>111.607</v>
       </c>
       <c r="G8">
-        <v>8.9860000000000007</v>
+        <v>9.2669999999999995</v>
       </c>
       <c r="H8">
-        <v>1.381</v>
+        <v>1.351</v>
       </c>
       <c r="I8">
-        <v>1.276</v>
+        <v>1.2989999999999999</v>
       </c>
       <c r="J8">
-        <v>1.194267515923567E-2</v>
+        <v>1.7355371900826446E-2</v>
       </c>
       <c r="K8">
-        <v>0.91063666895075679</v>
+        <v>0.89770566648295935</v>
       </c>
       <c r="L8">
-        <v>11.256</v>
+        <v>11.606999999999999</v>
       </c>
       <c r="M8">
-        <v>101.623</v>
+        <v>101.663</v>
       </c>
       <c r="N8">
-        <v>1.3140000000000001</v>
+        <v>1.357</v>
       </c>
       <c r="O8">
-        <v>1.306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.3460000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -872,46 +872,46 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>1.5177437998561031E-2</v>
+        <v>1.528063067012812E-2</v>
       </c>
       <c r="D9">
-        <v>0.90796870298662102</v>
+        <v>0.90456556315258529</v>
       </c>
       <c r="E9">
-        <v>8.1969999999999992</v>
+        <v>8.1910000000000007</v>
       </c>
       <c r="F9">
-        <v>111.746</v>
+        <v>111.229</v>
       </c>
       <c r="G9">
-        <v>9.3670000000000009</v>
+        <v>8.9320000000000004</v>
       </c>
       <c r="H9">
-        <v>1.974</v>
+        <v>2.181</v>
       </c>
       <c r="I9">
-        <v>2.4249999999999998</v>
+        <v>1.968</v>
       </c>
       <c r="J9">
-        <v>1.201923076923077E-2</v>
+        <v>1.7503805175038051E-2</v>
       </c>
       <c r="K9">
-        <v>0.90336544788169348</v>
+        <v>0.91374514920916206</v>
       </c>
       <c r="L9">
-        <v>11.746</v>
+        <v>11.228999999999999</v>
       </c>
       <c r="M9">
-        <v>102.804</v>
+        <v>102.64100000000001</v>
       </c>
       <c r="N9">
-        <v>2.2480000000000002</v>
+        <v>2.1320000000000001</v>
       </c>
       <c r="O9">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -919,46 +919,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1.7022604298846233E-2</v>
+        <v>1.6237914289266728E-2</v>
       </c>
       <c r="D10">
-        <v>0.91188723724814336</v>
+        <v>0.90317102435179386</v>
       </c>
       <c r="E10">
-        <v>8.1869999999999994</v>
+        <v>8.1760000000000002</v>
       </c>
       <c r="F10">
-        <v>111.711</v>
+        <v>111.73699999999999</v>
       </c>
       <c r="G10">
-        <v>9.2110000000000003</v>
+        <v>9.4149999999999991</v>
       </c>
       <c r="H10">
-        <v>1.42</v>
+        <v>1.294</v>
       </c>
       <c r="I10">
-        <v>1.2689999999999999</v>
+        <v>1.3169999999999999</v>
       </c>
       <c r="J10">
-        <v>1.5303379416282644E-2</v>
+        <v>1.1727666273120821E-2</v>
       </c>
       <c r="K10">
-        <v>0.89739606227355395</v>
+        <v>0.90986522600305064</v>
       </c>
       <c r="L10">
-        <v>11.711</v>
+        <v>11.737</v>
       </c>
       <c r="M10">
-        <v>111.711</v>
+        <v>111.73699999999999</v>
       </c>
       <c r="N10">
-        <v>1.456</v>
+        <v>1.4</v>
       </c>
       <c r="O10">
-        <v>1.4830000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -966,46 +966,46 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1.7019528923067597E-2</v>
+        <v>1.7094817455095626E-2</v>
       </c>
       <c r="D11">
-        <v>0.90415124517669754</v>
+        <v>0.90283995439412101</v>
       </c>
       <c r="E11">
-        <v>8.2159999999999993</v>
+        <v>8.1739999999999995</v>
       </c>
       <c r="F11">
-        <v>111.386</v>
+        <v>111.255</v>
       </c>
       <c r="G11">
-        <v>8.9760000000000009</v>
+        <v>8.8689999999999998</v>
       </c>
       <c r="H11">
-        <v>0.95499999999999996</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="I11">
-        <v>0.85699999999999998</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="J11">
-        <v>2.227342549923195E-2</v>
+        <v>1.8433179723502304E-2</v>
       </c>
       <c r="K11">
-        <v>0.89966981703622939</v>
+        <v>0.90226370851370896</v>
       </c>
       <c r="L11">
-        <v>11.385999999999999</v>
+        <v>11.255000000000001</v>
       </c>
       <c r="M11">
-        <v>101.137</v>
+        <v>101.13500000000001</v>
       </c>
       <c r="N11">
-        <v>0.89700000000000002</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="O11">
-        <v>0.88200000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1013,46 +1013,46 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>1.6093327525215424E-2</v>
+        <v>1.6321057400574778E-2</v>
       </c>
       <c r="D12">
-        <v>0.9089427268430188</v>
+        <v>0.90820250035888228</v>
       </c>
       <c r="E12">
-        <v>8.1950000000000003</v>
+        <v>8.19</v>
       </c>
       <c r="F12">
-        <v>111.78400000000001</v>
+        <v>111.38800000000001</v>
       </c>
       <c r="G12">
-        <v>9.4060000000000006</v>
+        <v>8.9949999999999992</v>
       </c>
       <c r="H12">
-        <v>1.238</v>
+        <v>1.2470000000000001</v>
       </c>
       <c r="I12">
-        <v>1.341</v>
+        <v>1.325</v>
       </c>
       <c r="J12">
-        <v>9.6618357487922701E-3</v>
+        <v>1.5847860538827259E-2</v>
       </c>
       <c r="K12">
-        <v>0.90772566285811318</v>
+        <v>0.90378241040005736</v>
       </c>
       <c r="L12">
-        <v>11.784000000000001</v>
+        <v>11.388</v>
       </c>
       <c r="M12">
-        <v>101.71899999999999</v>
+        <v>101.60899999999999</v>
       </c>
       <c r="N12">
-        <v>1.3979999999999999</v>
+        <v>1.2849999999999999</v>
       </c>
       <c r="O12">
-        <v>1.3919999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.2749999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1060,46 +1060,46 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>1.6891033633151663E-2</v>
+        <v>1.6564739438023814E-2</v>
       </c>
       <c r="D13">
-        <v>0.90771417000943599</v>
+        <v>0.90798858669729476</v>
       </c>
       <c r="E13">
-        <v>8.1929999999999996</v>
+        <v>8.1560000000000006</v>
       </c>
       <c r="F13">
-        <v>111.221</v>
+        <v>111.765</v>
       </c>
       <c r="G13">
-        <v>8.8469999999999995</v>
+        <v>9.4090000000000007</v>
       </c>
       <c r="H13">
-        <v>2.04</v>
+        <v>2.2189999999999999</v>
       </c>
       <c r="I13">
-        <v>1.8180000000000001</v>
+        <v>2.3450000000000002</v>
       </c>
       <c r="J13">
-        <v>1.7027863777089782E-2</v>
+        <v>1.8335862417804754E-2</v>
       </c>
       <c r="K13">
-        <v>0.9039563339349207</v>
+        <v>0.91369115818268387</v>
       </c>
       <c r="L13">
-        <v>11.221</v>
+        <v>11.765000000000001</v>
       </c>
       <c r="M13">
-        <v>102.584</v>
+        <v>102.771</v>
       </c>
       <c r="N13">
-        <v>2.0419999999999998</v>
+        <v>2.1920000000000002</v>
       </c>
       <c r="O13">
-        <v>2.0310000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.1779999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1107,46 +1107,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1.8782206092849724E-2</v>
+        <v>1.925035252282396E-2</v>
       </c>
       <c r="D14">
-        <v>0.91889426287002696</v>
+        <v>0.91767236250922479</v>
       </c>
       <c r="E14">
-        <v>8.1639999999999997</v>
+        <v>8.1790000000000003</v>
       </c>
       <c r="F14">
-        <v>111.286</v>
+        <v>111.905</v>
       </c>
       <c r="G14">
-        <v>8.8219999999999992</v>
+        <v>9.3740000000000006</v>
       </c>
       <c r="H14">
-        <v>1.3080000000000001</v>
+        <v>1.2929999999999999</v>
       </c>
       <c r="I14">
-        <v>1.292</v>
+        <v>1.3420000000000001</v>
       </c>
       <c r="J14">
-        <v>1.9044922612306534E-2</v>
+        <v>1.8898978433598179E-2</v>
       </c>
       <c r="K14">
-        <v>0.9188821719423329</v>
+        <v>0.91749802778703349</v>
       </c>
       <c r="L14">
-        <v>11.286</v>
+        <v>11.904999999999999</v>
       </c>
       <c r="M14">
-        <v>111.286</v>
+        <v>111.905</v>
       </c>
       <c r="N14">
-        <v>1.272</v>
+        <v>1.2509999999999999</v>
       </c>
       <c r="O14">
-        <v>1.222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1154,46 +1154,46 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1.8554418023239233E-2</v>
+        <v>1.9244122977991121E-2</v>
       </c>
       <c r="D15">
-        <v>0.92306545762136039</v>
+        <v>0.91522112379738174</v>
       </c>
       <c r="E15">
-        <v>8.1880000000000006</v>
+        <v>8.17</v>
       </c>
       <c r="F15">
-        <v>111.833</v>
+        <v>112.16800000000001</v>
       </c>
       <c r="G15">
-        <v>9.35</v>
+        <v>9.66</v>
       </c>
       <c r="H15">
-        <v>0.97399999999999998</v>
+        <v>0.93</v>
       </c>
       <c r="I15">
-        <v>0.94799999999999995</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="J15">
-        <v>1.5971148892323546E-2</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="K15">
-        <v>0.90984604368063038</v>
+        <v>0.92793040293040285</v>
       </c>
       <c r="L15">
-        <v>11.833</v>
+        <v>12.167999999999999</v>
       </c>
       <c r="M15">
-        <v>101.154</v>
+        <v>101.223</v>
       </c>
       <c r="N15">
-        <v>0.92300000000000004</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="O15">
-        <v>0.91200000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1201,46 +1201,46 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>1.9890376683310576E-2</v>
+        <v>2.0749736207689471E-2</v>
       </c>
       <c r="D16">
-        <v>0.91431374216747785</v>
+        <v>0.92160448981970911</v>
       </c>
       <c r="E16">
-        <v>8.1660000000000004</v>
+        <v>8.1720000000000006</v>
       </c>
       <c r="F16">
-        <v>111.282</v>
+        <v>112.248</v>
       </c>
       <c r="G16">
-        <v>8.7159999999999993</v>
+        <v>9.6</v>
       </c>
       <c r="H16">
-        <v>1.2829999999999999</v>
+        <v>1.419</v>
       </c>
       <c r="I16">
-        <v>1.367</v>
+        <v>1.339</v>
       </c>
       <c r="J16">
-        <v>2.6515151515151516E-2</v>
+        <v>2.1604938271604937E-2</v>
       </c>
       <c r="K16">
-        <v>0.91343115983403789</v>
+        <v>0.92498364707931946</v>
       </c>
       <c r="L16">
-        <v>11.282</v>
+        <v>12.247999999999999</v>
       </c>
       <c r="M16">
-        <v>101.657</v>
+        <v>101.76900000000001</v>
       </c>
       <c r="N16">
-        <v>1.2969999999999999</v>
+        <v>1.427</v>
       </c>
       <c r="O16">
-        <v>1.2789999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1248,43 +1248,43 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>1.8736116762747317E-2</v>
+        <v>1.9050610309277204E-2</v>
       </c>
       <c r="D17">
-        <v>0.91657926172424353</v>
+        <v>0.91651621806881634</v>
       </c>
       <c r="E17">
-        <v>8.1880000000000006</v>
+        <v>8.16</v>
       </c>
       <c r="F17">
-        <v>112.34399999999999</v>
+        <v>111.89700000000001</v>
       </c>
       <c r="G17">
-        <v>9.8559999999999999</v>
+        <v>9.3819999999999997</v>
       </c>
       <c r="H17">
-        <v>2.1349999999999998</v>
+        <v>2.09</v>
       </c>
       <c r="I17">
-        <v>2.3879999999999999</v>
+        <v>2.548</v>
       </c>
       <c r="J17">
-        <v>2.1671826625386997E-2</v>
+        <v>2.6380670611439842E-2</v>
       </c>
       <c r="K17">
-        <v>0.92067422998001747</v>
+        <v>0.91298498768397252</v>
       </c>
       <c r="L17">
-        <v>12.343999999999999</v>
+        <v>11.897</v>
       </c>
       <c r="M17">
-        <v>102.858</v>
+        <v>102.837</v>
       </c>
       <c r="N17">
-        <v>2.2829999999999999</v>
+        <v>2.2610000000000001</v>
       </c>
       <c r="O17">
-        <v>2.2679999999999998</v>
+        <v>2.242</v>
       </c>
     </row>
   </sheetData>
@@ -1293,29 +1293,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D62AFD-E359-4A70-ACE2-970AE683296B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB115547-E5A5-4A5D-8A98-9510729616F8}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22.981961046756272</v>
       </c>
